--- a/SAO_LUIZ_GONZAGA.xlsx
+++ b/SAO_LUIZ_GONZAGA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68F6B9BD-2C0C-4EE5-BECD-1110FD061FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C93AF63-F93A-4DB3-B25B-4379489DAEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1188,7 +1188,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{2B6E4AD1-3DA6-4D80-A93F-71779CB29D12}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{64785856-DA3F-413B-8B59-FFAFA4ED9E9F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1218,10 +1218,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA2D0AF9-E362-417D-B147-0FEE0D7AEEDB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADCC05F8-C27B-41E9-867F-79A6013FE0CE}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1259,7 +1259,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B8EB027-E6A1-4BFA-B669-195606696A53}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B71CD49C-4401-4281-B744-FE1499964B41}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1322,7 +1322,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BDC2A80-2BD0-4834-B55F-EDE04938780F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E52988CF-06D4-4A04-98DF-7FBFB9F7E686}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1341,7 +1341,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{877C0888-93F0-6662-E651-92E7FC4684FC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FDB532A-D6AF-DE5C-3BBD-38191C80B8EB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1390,7 +1390,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{502E1721-F486-41D3-6B21-71C581A09136}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1303D2EA-22E2-939F-8F32-0E2CF4E461A5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1409,7 +1409,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3083A4C7-9982-7A05-E4A8-862C196C0C2C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2CD4490-F7E8-A58E-7FA4-BC7A9984FA43}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1440,7 +1440,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B348B272-0842-6153-9D66-BEA9C6BA28E7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C06E5388-54FA-0BD8-6975-81014B95C8D9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1471,7 +1471,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{874DC88D-3786-DF90-1AC9-87C23C077225}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9766D049-511C-DABA-2F4C-6728AF2F0661}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1514,7 +1514,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{904ADF5D-4713-411C-A9AE-A5D4FA181F5B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8B6605C-67F1-44C4-BEAC-CFA876914BD1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1552,7 +1552,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8290F7C4-9926-42F9-9E34-9652645E5DAB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82BFFED8-123D-4562-9959-1F895B221F5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1595,7 +1595,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAC1DD78-1DB0-41D4-A3D2-6772F7D72B74}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34B1895A-B8F3-4B1C-9E0C-3F9C8D5B999B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1908,7 +1908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{219CFBB5-4DA6-4B9F-8DD6-AA59C0FC35E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389AB20F-0507-4D14-8FCC-C97BE40BD209}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/SAO_LUIZ_GONZAGA.xlsx
+++ b/SAO_LUIZ_GONZAGA.xlsx
@@ -8,25 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C93AF63-F93A-4DB3-B25B-4379489DAEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8910DF5A-E078-49C7-919F-93F3B0F6E875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="7" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="6" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="296">
   <si>
     <t>COMARCA</t>
   </si>
@@ -914,15 +913,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>SÃO LUIZ GONZAGA</t>
   </si>
 </sst>
 </file>
@@ -1102,7 +1092,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1168,27 +1158,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{64785856-DA3F-413B-8B59-FFAFA4ED9E9F}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{D3452C7B-06AC-4513-AC9C-2F699497271F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1218,10 +1193,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADCC05F8-C27B-41E9-867F-79A6013FE0CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{048F3ACE-240A-436E-AB34-F679BA277880}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1259,7 +1234,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B71CD49C-4401-4281-B744-FE1499964B41}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26C88F8B-D206-4135-9C65-8B0FE9BC9FBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1322,7 +1297,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E52988CF-06D4-4A04-98DF-7FBFB9F7E686}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{938C7F62-E860-4F32-B3BA-F0DA0F64196B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1341,7 +1316,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FDB532A-D6AF-DE5C-3BBD-38191C80B8EB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C11BC977-73A4-F61A-581B-35FABB4C488E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1390,7 +1365,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1303D2EA-22E2-939F-8F32-0E2CF4E461A5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06C3BDC6-2A5D-456F-77C7-162D2E841738}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1409,7 +1384,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2CD4490-F7E8-A58E-7FA4-BC7A9984FA43}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAF92350-97F2-0377-DB5D-72421EE154AD}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1440,7 +1415,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C06E5388-54FA-0BD8-6975-81014B95C8D9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAD800E6-4553-6294-0561-7FF2F9A6B9A3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1471,7 +1446,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9766D049-511C-DABA-2F4C-6728AF2F0661}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59E7EA06-C757-BA15-1390-5139CA9982B3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1514,7 +1489,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8B6605C-67F1-44C4-BEAC-CFA876914BD1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DB6F6C8-38D4-4F92-A172-217FC1DFE99F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1552,7 +1527,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82BFFED8-123D-4562-9959-1F895B221F5C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A43665D-7791-4A41-A3A2-D4FD09203D26}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1595,7 +1570,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34B1895A-B8F3-4B1C-9E0C-3F9C8D5B999B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0FB5D6B-673D-4387-A896-C8CF00A2E283}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1908,7 +1883,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389AB20F-0507-4D14-8FCC-C97BE40BD209}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F7A15E-26F3-4684-BD4C-0C95143E5796}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1920,98 +1895,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="33"/>
-    <col min="6" max="6" width="2" style="33" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="33" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="33"/>
+    <col min="1" max="5" width="12.5703125" style="28"/>
+    <col min="6" max="6" width="2" style="28" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="28" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="32"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="32"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="32"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="32"/>
+      <c r="F4" s="27"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="32"/>
+      <c r="F5" s="27"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="32"/>
+      <c r="F6" s="27"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="32"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="32"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="32"/>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="32"/>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="32"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="32"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="32"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="32"/>
+      <c r="F14" s="27"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="32"/>
+      <c r="F15" s="27"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="32"/>
+      <c r="F16" s="27"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="32"/>
+      <c r="F17" s="27"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="32"/>
+      <c r="F18" s="27"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="32"/>
+      <c r="F19" s="27"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="32"/>
+      <c r="F20" s="27"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="32"/>
+      <c r="F21" s="27"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="32"/>
+      <c r="F22" s="27"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="32"/>
+      <c r="F23" s="27"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="32"/>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="32"/>
+      <c r="F25" s="27"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="32"/>
+      <c r="F26" s="27"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="32"/>
+      <c r="F27" s="27"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="32"/>
+      <c r="F28" s="27"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="32"/>
+      <c r="F29" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5446,52 +5421,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>297</v>
-      </c>
-      <c r="E1" s="28">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="B2" s="31">
-        <v>16</v>
-      </c>
-      <c r="C2" s="29">
-        <v>1.0580611030287001E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/SAO_LUIZ_GONZAGA.xlsx
+++ b/SAO_LUIZ_GONZAGA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8910DF5A-E078-49C7-919F-93F3B0F6E875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FFCB133-CBC9-4F72-A4F3-4A115C92BAD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1163,7 +1163,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{D3452C7B-06AC-4513-AC9C-2F699497271F}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{05165201-D7CD-4C73-AE8D-FA3844C7317E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1193,10 +1193,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{048F3ACE-240A-436E-AB34-F679BA277880}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F5C2C37-13AC-43B5-B0B4-AE95AC0CA432}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1234,7 +1234,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26C88F8B-D206-4135-9C65-8B0FE9BC9FBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4CEA1B2-EFDC-4BA5-BCE4-5A79DC3D42FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1297,7 +1297,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{938C7F62-E860-4F32-B3BA-F0DA0F64196B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4C2AA47-3E73-4CA4-B578-F7E55C5B279D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1316,7 +1316,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C11BC977-73A4-F61A-581B-35FABB4C488E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05A5543B-A30F-6D64-391D-3553F1DF7FD8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1365,7 +1365,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06C3BDC6-2A5D-456F-77C7-162D2E841738}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9C4F26A-8775-B641-4099-51FAB021AC84}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1384,7 +1384,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAF92350-97F2-0377-DB5D-72421EE154AD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA1D6800-DA34-BA46-272C-F2A3D182C213}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1415,7 +1415,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAD800E6-4553-6294-0561-7FF2F9A6B9A3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F3F8FCF-CA76-FED0-0C75-F24E88987F0D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1446,7 +1446,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59E7EA06-C757-BA15-1390-5139CA9982B3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{615BDAB9-0F88-7167-477E-80E0E228AD32}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1489,7 +1489,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DB6F6C8-38D4-4F92-A172-217FC1DFE99F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7D47F20-2536-4142-A744-80CCE8F9B081}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1527,7 +1527,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A43665D-7791-4A41-A3A2-D4FD09203D26}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3019CB03-B94F-496F-AAA4-AD6CFD25790F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1552,50 +1552,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0FB5D6B-673D-4387-A896-C8CF00A2E283}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1883,7 +1839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F7A15E-26F3-4684-BD4C-0C95143E5796}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{510BD8FB-7ABD-438F-8481-2185E067788F}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
